--- a/Switch 2 ports .xlsx
+++ b/Switch 2 ports .xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C0653F8-F52A-44BF-A614-4A45828DA09F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,13 +40,13 @@
     <t>Access</t>
   </si>
   <si>
-    <t>300:500</t>
+    <t>300-500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -366,20 +367,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.36328125" customWidth="1"/>
-    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -390,7 +391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -401,7 +402,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -412,7 +413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -423,7 +424,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -434,7 +435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -445,7 +446,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -456,7 +457,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -467,7 +468,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -478,7 +479,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
